--- a/spliced/walkingToRunning/2023-03-24_09-58-57/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_09-58-57/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9080048203468324</v>
+        <v>-1.123454570770264</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2965430021286011</v>
+        <v>-0.7644603848457336</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.026315689086914</v>
+        <v>2.25576400756836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.053946018218994</v>
+        <v>-0.0118510667234659</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.640923738479614</v>
+        <v>1.250487327575684</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.695018470287323</v>
+        <v>2.492785453796387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.089898705482483</v>
+        <v>-1.767406940460205</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8981510996818542</v>
+        <v>1.107741832733154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.530035674571991</v>
+        <v>2.145509243011475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.123454570770264</v>
+        <v>-0.9109342694282532</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7644603848457336</v>
+        <v>0.1809618026018142</v>
       </c>
       <c r="C5" t="n">
-        <v>2.25576400756836</v>
+        <v>1.575592756271362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0118510667234659</v>
+        <v>-1.000949144363403</v>
       </c>
       <c r="B6" t="n">
-        <v>1.250487327575684</v>
+        <v>0.0653806030750274</v>
       </c>
       <c r="C6" t="n">
-        <v>2.492785453796387</v>
+        <v>1.502622127532959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.767406940460205</v>
+        <v>-1.359943270683289</v>
       </c>
       <c r="B7" t="n">
-        <v>1.107741832733154</v>
+        <v>2.480335235595703</v>
       </c>
       <c r="C7" t="n">
-        <v>2.145509243011475</v>
+        <v>-0.1879525929689407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.9109342694282532</v>
+        <v>1.629188776016235</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1809618026018142</v>
+        <v>-4.939764499664307</v>
       </c>
       <c r="C8" t="n">
-        <v>1.575592756271362</v>
+        <v>-3.872169733047485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.000949144363403</v>
+        <v>4.826047420501709</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0653806030750274</v>
+        <v>0.760465681552887</v>
       </c>
       <c r="C9" t="n">
-        <v>1.502622127532959</v>
+        <v>-4.821853160858154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.359943270683289</v>
+        <v>4.102732658386231</v>
       </c>
       <c r="B10" t="n">
-        <v>2.480335235595703</v>
+        <v>-0.6872287392616272</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1879525929689407</v>
+        <v>-7.78328800201416</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.629188776016235</v>
+        <v>-5.43937349319458</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.939764499664307</v>
+        <v>-1.829724907875061</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.872169733047485</v>
+        <v>0.9886320233345032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.826047420501709</v>
+        <v>-8.410395622253418</v>
       </c>
       <c r="B12" t="n">
-        <v>0.760465681552887</v>
+        <v>0.938364803791046</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.821853160858154</v>
+        <v>10.93873500823975</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.102732658386231</v>
+        <v>3.432681560516357</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6872287392616272</v>
+        <v>8.507601737976074</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.78328800201416</v>
+        <v>-2.705705165863037</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.43937349319458</v>
+        <v>3.892343282699585</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.829724907875061</v>
+        <v>-3.907523155212401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9886320233345032</v>
+        <v>0.7548064589500427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-8.410395622253418</v>
+        <v>10.68500232696533</v>
       </c>
       <c r="B15" t="n">
-        <v>0.938364803791046</v>
+        <v>-2.491254091262817</v>
       </c>
       <c r="C15" t="n">
-        <v>10.93873500823975</v>
+        <v>0.1119193434715271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.432681560516357</v>
+        <v>-0.7697867155075073</v>
       </c>
       <c r="B16" t="n">
-        <v>8.507601737976074</v>
+        <v>1.647830963134766</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.705705165863037</v>
+        <v>1.185173273086548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.892343282699585</v>
+        <v>-3.376488924026489</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.907523155212401</v>
+        <v>1.38897168636322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7548064589500427</v>
+        <v>1.326853513717651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.68500232696533</v>
+        <v>-4.735766410827637</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.491254091262817</v>
+        <v>-0.1961418241262436</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1119193434715271</v>
+        <v>-5.656487464904785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.7697867155075073</v>
+        <v>-2.693654298782349</v>
       </c>
       <c r="B19" t="n">
-        <v>1.647830963134766</v>
+        <v>12.81020450592041</v>
       </c>
       <c r="C19" t="n">
-        <v>1.185173273086548</v>
+        <v>-6.878878593444824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.376488924026489</v>
+        <v>4.974119186401367</v>
       </c>
       <c r="B20" t="n">
-        <v>1.38897168636322</v>
+        <v>-6.053498268127441</v>
       </c>
       <c r="C20" t="n">
-        <v>1.326853513717651</v>
+        <v>-4.147007942199707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.735766410827637</v>
+        <v>-2.26168966293335</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1961418241262436</v>
+        <v>-17.45715522766113</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.656487464904785</v>
+        <v>0.2626542747020721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.576191902160644</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.079262971878052</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.673064351081848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-10.3257417678833</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.127981901168823</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.69497013092041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6.999719619750977</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-9.156081199645996</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.504971027374268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.670201539993286</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-8.627177238464355</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0325571447610855</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.071092128753662</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.176451444625854</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.140298962593079</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-2.711231231689453</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-4.331498622894287</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.348158717155456</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-5.673731803894043</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.553022384643555</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.025134325027466</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.546931266784668</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9.443968772888184</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7339006066322327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.6049370765686035</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.170445442199707</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.977948188781738</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4.74082612991333</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.404219627380371</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.638944625854492</v>
       </c>
     </row>
   </sheetData>
